--- a/Doc/EEPROM_Manage.xlsx
+++ b/Doc/EEPROM_Manage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Database\SynologyDrive\GIT\Small_Project_Cluster\WSN_Controller_Node\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE581D9-4DEC-4877-A11E-0E2B9F22B057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EE57E2-9926-4FA1-896B-9E5A29146AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18357273-8C6E-473F-9E56-AF478575C49D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18357273-8C6E-473F-9E56-AF478575C49D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
   <si>
     <t>Action: 0-OFFF, 1-ON</t>
   </si>
@@ -106,13 +106,223 @@
   </si>
   <si>
     <t>6: From time to time</t>
+  </si>
+  <si>
+    <t>To Time (0-1439mins)</t>
+  </si>
+  <si>
+    <t>From Time (0-1439mins)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Year -&gt; 2127</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Repeat Day</t>
+  </si>
+  <si>
+    <t>RepeatUntilFlag</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>Repeat Until</t>
+  </si>
+  <si>
+    <t>2bytes</t>
+  </si>
+  <si>
+    <t>1: Channel 1</t>
+  </si>
+  <si>
+    <t>0: No channel</t>
+  </si>
+  <si>
+    <t>2: Channel 2</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>0: Disable</t>
+  </si>
+  <si>
+    <t>1: Enable</t>
+  </si>
+  <si>
+    <t>Schedule ID -&gt; 65535</t>
+  </si>
+  <si>
+    <t>Schedule ID</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>&lt;---</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>SER</t>
+  </si>
+  <si>
+    <t>Kiểm tra trong mảng. Nếu trùng SID thì lấy index rồi lưu vào vị trí EEPROM.</t>
+  </si>
+  <si>
+    <t>1byte</t>
+  </si>
+  <si>
+    <t>Schedule sync version</t>
+  </si>
+  <si>
+    <t>Load 100 scheduleSynVer vào biến mảng 100 phần tử từ EEPROM</t>
+  </si>
+  <si>
+    <t>Load 100 scheduleID vào biến mảng 100 phần tử từ EEPROM</t>
+  </si>
+  <si>
+    <t>//Khi tạo mới giá trị này sẽ được random từ 1-65000</t>
+  </si>
+  <si>
+    <t>CHÚ Ý: Server không tự ý check sự khác nhau của 2 phiên bản Ver để gửi xuống. Tránh trường hợp một node tự tắt và Server liên tục gửi.</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>C2 thì GW yêu cầu SER cung cấp toàn bộ Schedule (MQTT)</t>
+  </si>
+  <si>
+    <t>GW gửi gói scheduleList (Chỉ gồm ScheduleID và Ver của toàn bộ scheduleList. Mỗi lần gửi tối đa 20 cái). Ký tự báo hết của chỗi schedule là có SID=0 và Sver = 0</t>
+  </si>
+  <si>
+    <t>Node lưu các schedule nhận vào mảng cho đến khi đã nhận đầy đủ toàn bộ.</t>
+  </si>
+  <si>
+    <t>Node kiểm tra từng SID và Sver với Mảng đã lưu trước đó. Nếu chưa có hoặc khác version thì node lại index của nó.</t>
+  </si>
+  <si>
+    <t>Node gửi yêu cầu cập nhật cho từng SID đến GW cho đén khi hết.</t>
+  </si>
+  <si>
+    <t>//Khi tạo mới thì giá tị này sẽ là 0 và gửi gói xuống ngay tại lúc đó. Mỗi 15ph node sẽ gửi cập nhật lên server. Lúc này server mới được phép gửi gói xuống.</t>
+  </si>
+  <si>
+    <t>Tạo/Edit schedule với SID</t>
+  </si>
+  <si>
+    <t>Nếu không trùng thì tạo mới.</t>
+  </si>
+  <si>
+    <t>Nếu schedule nào bị dư ra. Node có mà server không có thì xóa trong EEPROM</t>
+  </si>
+  <si>
+    <t>Gửi các gói bắt tay trong quá trình nhận. Thêm OK vào cuối dữ liệu nhận được.</t>
+  </si>
+  <si>
+    <t>Server gửi schedule với SID cho Gateway</t>
+  </si>
+  <si>
+    <t>Gateway gửi gói cập nhật xuống</t>
+  </si>
+  <si>
+    <t>Mỗi 15ph Node sẽ gửi danh sách toàn bộ SID và Ver đang có</t>
+  </si>
+  <si>
+    <t>GW yêu cầu nhận thông tin từ Server</t>
+  </si>
+  <si>
+    <t>GW gửi xuống node các gói bị mất đồng bộ. Nếu gửi thành công thì GW cập nhật NodeVer lên Server.</t>
+  </si>
+  <si>
+    <t>SETUP</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>NORMAL</t>
+  </si>
+  <si>
+    <t>WORKING</t>
+  </si>
+  <si>
+    <t>//Khi tạo mới giá trị này sẽ là 1</t>
+  </si>
+  <si>
+    <t>C2 yêu cầu tham gia vô mạng</t>
+  </si>
+  <si>
+    <t>Gửi A1 để đồng bộ thời gian.</t>
+  </si>
+  <si>
+    <t>Node cập nhật lại trạng thái của các swicth theo lịch mới nhất. Nếu có.</t>
+  </si>
+  <si>
+    <t>Node gửi gói lên GW đế cập nhật trạng thái sau cùng của 4 channel</t>
+  </si>
+  <si>
+    <t>GW nhận gói trạng thái 4 kênh và gửi lên SER</t>
+  </si>
+  <si>
+    <t>Mỗi 5ph Node sẽ gửi WDT Task1&amp;2 cho Slave để tránh bị reset</t>
+  </si>
+  <si>
+    <t>Mỗi 15ph Node sẽ gửi trạng thái 4 kênh lên GW</t>
+  </si>
+  <si>
+    <t>SCHEDULE</t>
+  </si>
+  <si>
+    <t>CHANNEL</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Người dùng ON/OFF channel ở AUTO</t>
+  </si>
+  <si>
+    <t>Server gửi cập nhật trạng thái xuống GW</t>
+  </si>
+  <si>
+    <t>GW gửi gói xuống node</t>
+  </si>
+  <si>
+    <t>Node kiểm tra gói nhận nếu đang là chế độ Auto thì đổi trạng thái của channel trong period của schedule đang chạy</t>
+  </si>
+  <si>
+    <t>Node kiểm tra kênh đã được đổi thành công thì gửi gói cập nhật trạng thái 4 kênh lên Server (Không lưu vào EEPROM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Những schedule nào có thông tin của ScheduleID và SheduleVer thì load dữ liệu của schedule đó vào mảng 100 phần tử </t>
+  </si>
+  <si>
+    <t>Nếu đang là Auto thì sẽ kiểm tra với lịch trong EEPROM rồi mới bật trạng thái.</t>
+  </si>
+  <si>
+    <t>GW gửi B0</t>
+  </si>
+  <si>
+    <t>Node gửi B0_OK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,8 +344,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,8 +396,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -228,11 +464,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -270,25 +683,231 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9900"/>
+      <color rgb="FF008000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -298,6 +917,54 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>7326</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>153865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>34542</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>36635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC97BF4C-A6A2-4A57-C51D-923DC5FC02C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect r="52805"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6601557" y="12345865"/>
+          <a:ext cx="3492850" cy="3121270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -597,177 +1264,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C0535B-B093-4E4B-BF53-F3130E167E80}">
-  <dimension ref="I10:AN22"/>
+  <dimension ref="E1:BE113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AG23" sqref="AG23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="W21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BG36" sqref="BG36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="13" width="4.7109375" customWidth="1"/>
-    <col min="14" max="37" width="4.7109375" style="1" customWidth="1"/>
-    <col min="38" max="41" width="4.7109375" customWidth="1"/>
+    <col min="2" max="25" width="4.7109375" customWidth="1"/>
+    <col min="26" max="49" width="4.7109375" style="1" customWidth="1"/>
+    <col min="50" max="53" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="9:40" x14ac:dyDescent="0.25">
-      <c r="I10" s="3">
+    <row r="1" spans="15:57" x14ac:dyDescent="0.25">
+      <c r="O1" s="3">
         <v>31</v>
       </c>
-      <c r="J10" s="3">
+      <c r="P1" s="3">
         <v>30</v>
       </c>
-      <c r="K10" s="3">
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3">
         <v>29</v>
       </c>
-      <c r="L10" s="3">
+      <c r="S1" s="3">
         <v>28</v>
       </c>
-      <c r="M10" s="3">
+      <c r="T1" s="3">
         <v>27</v>
       </c>
-      <c r="N10" s="3">
+      <c r="U1" s="3">
         <v>26</v>
       </c>
-      <c r="O10" s="3">
+      <c r="V1" s="3">
         <v>25</v>
       </c>
-      <c r="P10" s="3">
+      <c r="W1" s="3">
         <v>24</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+    </row>
+    <row r="10" spans="15:57" x14ac:dyDescent="0.25">
+      <c r="U10" s="3">
+        <v>31</v>
+      </c>
+      <c r="V10" s="3">
+        <v>30</v>
+      </c>
+      <c r="W10" s="3">
+        <v>29</v>
+      </c>
+      <c r="X10" s="3">
+        <v>28</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>27</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>26</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>24</v>
+      </c>
+      <c r="AC10" s="3">
         <v>23</v>
       </c>
-      <c r="R10" s="3">
+      <c r="AD10" s="3">
         <v>22</v>
       </c>
-      <c r="S10" s="3">
+      <c r="AE10" s="3">
         <v>21</v>
       </c>
-      <c r="T10" s="3">
+      <c r="AF10" s="3">
         <v>20</v>
       </c>
-      <c r="U10" s="3">
+      <c r="AG10" s="3">
         <v>19</v>
       </c>
-      <c r="V10" s="3">
+      <c r="AH10" s="3">
         <v>18</v>
       </c>
-      <c r="W10" s="3">
+      <c r="AI10" s="3">
         <v>17</v>
       </c>
-      <c r="X10" s="3">
+      <c r="AJ10" s="3">
         <v>16</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AK10" s="3">
         <v>15</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AL10" s="3">
         <v>14</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AM10" s="3">
         <v>13</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AN10" s="3">
         <v>12</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AO10" s="3">
         <v>11</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AP10" s="3">
         <v>10</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AQ10" s="3">
         <v>9</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AR10" s="3">
         <v>8</v>
       </c>
-      <c r="AG10" s="3">
+      <c r="AS10" s="3">
         <v>7</v>
       </c>
-      <c r="AH10" s="3">
+      <c r="AT10" s="3">
         <v>6</v>
       </c>
-      <c r="AI10" s="3">
+      <c r="AU10" s="3">
         <v>5</v>
       </c>
-      <c r="AJ10" s="3">
+      <c r="AV10" s="3">
         <v>4</v>
       </c>
-      <c r="AK10" s="3">
+      <c r="AW10" s="3">
         <v>3</v>
       </c>
-      <c r="AL10" s="3">
+      <c r="AX10" s="3">
         <v>2</v>
       </c>
-      <c r="AM10" s="3">
+      <c r="AY10" s="3">
         <v>1</v>
       </c>
-      <c r="AN10" s="3">
+      <c r="AZ10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="9:40" x14ac:dyDescent="0.25">
-      <c r="AN11" s="15" t="s">
+    <row r="11" spans="15:57" x14ac:dyDescent="0.25">
+      <c r="AZ11" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="9:40" x14ac:dyDescent="0.25">
-      <c r="AK12" s="16" t="s">
+    <row r="12" spans="15:57" x14ac:dyDescent="0.25">
+      <c r="AW12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AL12" s="16"/>
-      <c r="AM12" s="16"/>
-    </row>
-    <row r="13" spans="9:40" x14ac:dyDescent="0.25">
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
+      <c r="AX12" s="17"/>
+      <c r="AY12" s="17"/>
+    </row>
+    <row r="13" spans="15:57" x14ac:dyDescent="0.25">
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
-      <c r="Y13" s="6" t="s">
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AL13" s="4"/>
-    </row>
-    <row r="14" spans="9:40" x14ac:dyDescent="0.25">
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="5"/>
+      <c r="AX13" s="4"/>
+    </row>
+    <row r="14" spans="15:57" x14ac:dyDescent="0.25">
       <c r="W14" s="4"/>
-      <c r="X14" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
@@ -779,265 +1475,2841 @@
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
+      <c r="AJ14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
-    </row>
-    <row r="15" spans="9:40" x14ac:dyDescent="0.25">
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AX14" s="4"/>
+    </row>
+    <row r="15" spans="15:57" x14ac:dyDescent="0.25">
+      <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
       <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
-    </row>
-    <row r="16" spans="9:40" x14ac:dyDescent="0.25">
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V16" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AX15" s="4"/>
+    </row>
+    <row r="16" spans="15:57" x14ac:dyDescent="0.25">
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
-    </row>
-    <row r="17" spans="9:38" x14ac:dyDescent="0.25">
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V17" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AX16" s="4"/>
+    </row>
+    <row r="17" spans="5:54" x14ac:dyDescent="0.25">
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
       <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
-    </row>
-    <row r="18" spans="9:38" x14ac:dyDescent="0.25">
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="R18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="V18" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AX17" s="4"/>
+    </row>
+    <row r="18" spans="5:54" x14ac:dyDescent="0.25">
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
+      <c r="Z18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG18" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="AH18" s="4"/>
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
-    </row>
-    <row r="19" spans="9:38" x14ac:dyDescent="0.25">
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="T19" s="14"/>
-      <c r="U19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V19" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AX18" s="4"/>
+    </row>
+    <row r="19" spans="5:54" x14ac:dyDescent="0.25">
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="AH19" s="4"/>
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
-    </row>
-    <row r="20" spans="9:38" x14ac:dyDescent="0.25">
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="S20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="T20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="V20" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
+      <c r="AX19" s="4"/>
+    </row>
+    <row r="20" spans="5:54" x14ac:dyDescent="0.25">
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG20" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
-    </row>
-    <row r="21" spans="9:38" x14ac:dyDescent="0.25">
-      <c r="N21" s="10"/>
-      <c r="O21" s="13" t="s">
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AX20" s="4"/>
+    </row>
+    <row r="21" spans="5:54" x14ac:dyDescent="0.25">
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="13" t="s">
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R21" s="14"/>
-      <c r="S21" s="13" t="s">
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="T21" s="14"/>
-      <c r="U21" s="4" t="s">
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="9:38" x14ac:dyDescent="0.25">
-      <c r="I22" s="6" t="s">
+    <row r="22" spans="5:54" x14ac:dyDescent="0.25">
+      <c r="U22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="4" t="s">
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="4" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="5:54" x14ac:dyDescent="0.25">
+      <c r="E28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="Z28"/>
+      <c r="AC28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AS28" s="19"/>
+    </row>
+    <row r="29" spans="5:54" x14ac:dyDescent="0.25">
+      <c r="E29" s="20">
+        <v>47</v>
+      </c>
+      <c r="F29" s="3">
+        <v>46</v>
+      </c>
+      <c r="G29" s="3">
+        <v>45</v>
+      </c>
+      <c r="H29" s="3">
+        <v>44</v>
+      </c>
+      <c r="I29" s="3">
+        <v>43</v>
+      </c>
+      <c r="J29" s="3">
+        <v>42</v>
+      </c>
+      <c r="K29" s="3">
+        <v>41</v>
+      </c>
+      <c r="L29" s="3">
+        <v>40</v>
+      </c>
+      <c r="M29" s="20">
+        <v>39</v>
+      </c>
+      <c r="N29" s="3">
+        <v>38</v>
+      </c>
+      <c r="O29" s="3">
+        <v>37</v>
+      </c>
+      <c r="P29" s="3">
+        <v>36</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>35</v>
+      </c>
+      <c r="R29" s="3">
+        <v>34</v>
+      </c>
+      <c r="S29" s="3">
+        <v>33</v>
+      </c>
+      <c r="T29" s="3">
+        <v>32</v>
+      </c>
+      <c r="U29" s="20">
+        <v>31</v>
+      </c>
+      <c r="V29" s="3">
+        <v>30</v>
+      </c>
+      <c r="W29" s="3">
+        <v>29</v>
+      </c>
+      <c r="X29" s="3">
+        <v>28</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>27</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>26</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>24</v>
+      </c>
+      <c r="AC29" s="20">
+        <v>23</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>22</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>21</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>19</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>18</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>17</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>16</v>
+      </c>
+      <c r="AK29" s="20">
+        <v>15</v>
+      </c>
+      <c r="AL29" s="3">
+        <v>14</v>
+      </c>
+      <c r="AM29" s="3">
+        <v>13</v>
+      </c>
+      <c r="AN29" s="3">
+        <v>12</v>
+      </c>
+      <c r="AO29" s="3">
+        <v>11</v>
+      </c>
+      <c r="AP29" s="3">
+        <v>10</v>
+      </c>
+      <c r="AQ29" s="3">
+        <v>9</v>
+      </c>
+      <c r="AR29" s="3">
+        <v>8</v>
+      </c>
+      <c r="AS29" s="20">
+        <v>7</v>
+      </c>
+      <c r="AT29" s="3">
+        <v>6</v>
+      </c>
+      <c r="AU29" s="3">
+        <v>5</v>
+      </c>
+      <c r="AV29" s="3">
+        <v>4</v>
+      </c>
+      <c r="AW29" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX29" s="3">
+        <v>2</v>
+      </c>
+      <c r="AY29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:54" x14ac:dyDescent="0.25">
+      <c r="Z31"/>
+      <c r="AG31" s="4"/>
+    </row>
+    <row r="32" spans="5:54" x14ac:dyDescent="0.25">
+      <c r="Z32"/>
+      <c r="AG32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK32" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL32" s="39"/>
+      <c r="AM32" s="39"/>
+      <c r="AN32" s="39"/>
+      <c r="AO32" s="39"/>
+      <c r="AP32" s="39"/>
+      <c r="AQ32" s="39"/>
+      <c r="AR32" s="39"/>
+      <c r="AS32" s="39"/>
+      <c r="AT32" s="39"/>
+      <c r="AU32" s="39"/>
+      <c r="AV32" s="39"/>
+      <c r="AW32" s="39"/>
+      <c r="AX32" s="40"/>
+      <c r="AY32" s="40"/>
+      <c r="AZ32" s="41"/>
+      <c r="BB32" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="24:54" x14ac:dyDescent="0.25">
+      <c r="Z33"/>
+      <c r="AG33" s="4"/>
+    </row>
+    <row r="34" spans="24:54" x14ac:dyDescent="0.25">
+      <c r="Z34"/>
+      <c r="AG34" s="4"/>
+      <c r="AS34" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT34" s="37"/>
+      <c r="AU34" s="37"/>
+      <c r="AV34" s="37"/>
+      <c r="AW34" s="37"/>
+      <c r="AX34" s="38"/>
+      <c r="AY34" s="38"/>
+      <c r="AZ34" s="35"/>
+      <c r="BB34" s="36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="24:54" x14ac:dyDescent="0.25">
+      <c r="Z35"/>
+      <c r="AG35" s="4"/>
+    </row>
+    <row r="36" spans="24:54" x14ac:dyDescent="0.25">
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AK36" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL36" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM36" s="18"/>
+      <c r="AN36" s="47"/>
+      <c r="AO36" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP36" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ36" s="30"/>
+      <c r="AR36" s="35"/>
+      <c r="AS36" s="12"/>
+      <c r="AT36" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU36" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV36" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY36" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ36" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB36" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="24:54" x14ac:dyDescent="0.25">
+      <c r="AG37" s="4"/>
+      <c r="AK37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ37" s="4"/>
+      <c r="AR37"/>
+      <c r="AS37" s="12"/>
+      <c r="AT37" s="12"/>
+      <c r="AU37" s="12"/>
+      <c r="AV37" s="12"/>
+      <c r="AW37" s="12"/>
+      <c r="AX37" s="12"/>
+      <c r="AY37" s="12"/>
+      <c r="AZ37" s="12"/>
+      <c r="BA37" s="4"/>
+    </row>
+    <row r="38" spans="24:54" x14ac:dyDescent="0.25">
+      <c r="AG38" s="4"/>
+      <c r="AK38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ38" s="4"/>
+      <c r="AR38"/>
+      <c r="AS38" s="12"/>
+      <c r="AT38" s="12"/>
+      <c r="AU38" s="12"/>
+      <c r="AV38" s="12"/>
+      <c r="AW38" s="12"/>
+      <c r="AX38" s="12"/>
+      <c r="AY38" s="12"/>
+      <c r="AZ38" s="12"/>
+      <c r="BA38" s="4"/>
+    </row>
+    <row r="39" spans="24:54" x14ac:dyDescent="0.25">
+      <c r="AG39" s="4"/>
+      <c r="AL39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ39" s="4"/>
+      <c r="AR39"/>
+      <c r="AS39" s="12"/>
+      <c r="AT39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU39" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV39" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY39" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ39" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA39" s="4"/>
+    </row>
+    <row r="40" spans="24:54" x14ac:dyDescent="0.25">
+      <c r="AG40" s="4"/>
+      <c r="AL40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ40" s="4"/>
+      <c r="AR40"/>
+      <c r="AS40" s="12"/>
+      <c r="AT40" s="12"/>
+      <c r="AU40" s="12"/>
+      <c r="AV40" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW40" s="33"/>
+      <c r="AX40" s="33"/>
+      <c r="AY40" s="33"/>
+      <c r="AZ40" s="34"/>
+      <c r="BA40" s="4"/>
+    </row>
+    <row r="41" spans="24:54" x14ac:dyDescent="0.25">
+      <c r="AG41" s="4"/>
+      <c r="AX41" s="4"/>
+    </row>
+    <row r="42" spans="24:54" x14ac:dyDescent="0.25">
+      <c r="Z42"/>
+      <c r="AG42" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK42" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL42" s="23"/>
+      <c r="AM42" s="23"/>
+      <c r="AN42" s="23"/>
+      <c r="AO42" s="23"/>
+      <c r="AP42" s="23"/>
+      <c r="AQ42" s="24"/>
+      <c r="AR42" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS42" s="23"/>
+      <c r="AT42" s="23"/>
+      <c r="AU42" s="24"/>
+      <c r="AV42" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW42" s="23"/>
+      <c r="AX42" s="23"/>
+      <c r="AY42" s="23"/>
+      <c r="AZ42" s="24"/>
+      <c r="BB42" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="24:54" x14ac:dyDescent="0.25">
+      <c r="Z43"/>
+      <c r="AG43" s="4"/>
+    </row>
+    <row r="44" spans="24:54" x14ac:dyDescent="0.25">
+      <c r="Y44" s="1"/>
+      <c r="AG44" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO44" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP44" s="26"/>
+      <c r="AQ44" s="26"/>
+      <c r="AR44" s="26"/>
+      <c r="AS44" s="26"/>
+      <c r="AT44" s="26"/>
+      <c r="AU44" s="26"/>
+      <c r="AV44" s="26"/>
+      <c r="AW44" s="26"/>
+      <c r="AX44" s="26"/>
+      <c r="AY44" s="26"/>
+      <c r="AZ44" s="27"/>
+      <c r="BB44" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="24:54" x14ac:dyDescent="0.25">
+      <c r="Y45" s="1"/>
+      <c r="AG45" s="4"/>
+      <c r="AX45" s="4"/>
+    </row>
+    <row r="46" spans="24:54" x14ac:dyDescent="0.25">
+      <c r="Y46" s="1"/>
+      <c r="AG46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO46" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP46" s="26"/>
+      <c r="AQ46" s="26"/>
+      <c r="AR46" s="26"/>
+      <c r="AS46" s="26"/>
+      <c r="AT46" s="26"/>
+      <c r="AU46" s="26"/>
+      <c r="AV46" s="26"/>
+      <c r="AW46" s="26"/>
+      <c r="AX46" s="26"/>
+      <c r="AY46" s="26"/>
+      <c r="AZ46" s="27"/>
+      <c r="BB46" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="24:54" x14ac:dyDescent="0.25">
+      <c r="Y47" s="1"/>
+      <c r="AG47" s="4"/>
+    </row>
+    <row r="48" spans="24:54" x14ac:dyDescent="0.25">
+      <c r="AG48" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK48" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL48" s="23"/>
+      <c r="AM48" s="23"/>
+      <c r="AN48" s="23"/>
+      <c r="AO48" s="23"/>
+      <c r="AP48" s="23"/>
+      <c r="AQ48" s="24"/>
+      <c r="AR48" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS48" s="23"/>
+      <c r="AT48" s="23"/>
+      <c r="AU48" s="24"/>
+      <c r="AV48" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW48" s="23"/>
+      <c r="AX48" s="23"/>
+      <c r="AY48" s="23"/>
+      <c r="AZ48" s="24"/>
+      <c r="BB48" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="AL54" s="4"/>
+      <c r="AM54" s="4"/>
+      <c r="AN54" s="4"/>
+      <c r="AO54" s="4"/>
+      <c r="AP54" s="4"/>
+      <c r="AQ54" s="4"/>
+      <c r="AR54" s="4"/>
+      <c r="AS54" s="4"/>
+      <c r="AT54" s="4"/>
+      <c r="AU54" s="4"/>
+      <c r="AV54" s="4"/>
+      <c r="AW54" s="4"/>
+      <c r="AX54" s="4"/>
+      <c r="AY54" s="4"/>
+      <c r="AZ54" s="4"/>
+      <c r="BA54" s="4"/>
+      <c r="BB54" s="4"/>
+    </row>
+    <row r="55" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="AL55" s="44"/>
+      <c r="AM55" s="44"/>
+      <c r="AN55" s="44"/>
+      <c r="AO55" s="44"/>
+      <c r="AP55" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ55" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR55" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS55" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT55" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU55" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV55" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW55" s="4"/>
+      <c r="AX55" s="4"/>
+      <c r="AY55" s="4"/>
+      <c r="AZ55" s="4"/>
+      <c r="BA55" s="4"/>
+      <c r="BB55" s="4"/>
+    </row>
+    <row r="56" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U56" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="V56" s="54"/>
+      <c r="W56" s="14"/>
+      <c r="X56" s="14"/>
+      <c r="Y56" s="14"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="2"/>
+      <c r="AH56" s="2"/>
+      <c r="AI56" s="2"/>
+      <c r="AJ56" s="2"/>
+      <c r="AK56" s="2"/>
+      <c r="AL56" s="48"/>
+      <c r="AM56" s="48"/>
+      <c r="AN56" s="48"/>
+      <c r="AO56" s="48"/>
+      <c r="AP56" s="58"/>
+      <c r="AQ56" s="5"/>
+      <c r="AR56" s="55"/>
+      <c r="AS56" s="5"/>
+      <c r="AT56" s="55"/>
+      <c r="AU56" s="5"/>
+      <c r="AV56" s="55"/>
+      <c r="AW56" s="5"/>
+      <c r="AX56" s="5"/>
+      <c r="AY56" s="5"/>
+      <c r="AZ56" s="5"/>
+      <c r="BA56" s="5"/>
+      <c r="BB56" s="5"/>
+      <c r="BC56" s="5"/>
+    </row>
+    <row r="57" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U57" s="54"/>
+      <c r="V57" s="54"/>
+      <c r="W57" s="14"/>
+      <c r="X57" s="14"/>
+      <c r="Y57" s="14"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="2"/>
+      <c r="AG57" s="2"/>
+      <c r="AH57" s="2"/>
+      <c r="AI57" s="2"/>
+      <c r="AJ57" s="2"/>
+      <c r="AK57" s="2"/>
+      <c r="AL57" s="48"/>
+      <c r="AM57" s="48"/>
+      <c r="AN57" s="48"/>
+      <c r="AO57" s="48"/>
+      <c r="AP57" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ57" s="5"/>
+      <c r="AR57" s="55"/>
+      <c r="AS57" s="5"/>
+      <c r="AT57" s="55"/>
+      <c r="AU57" s="5"/>
+      <c r="AV57" s="55"/>
+      <c r="AW57" s="5"/>
+      <c r="AX57" s="5"/>
+      <c r="AY57" s="5"/>
+      <c r="AZ57" s="5"/>
+      <c r="BA57" s="5"/>
+      <c r="BB57" s="5"/>
+      <c r="BC57" s="5"/>
+    </row>
+    <row r="58" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U58" s="54"/>
+      <c r="V58" s="54"/>
+      <c r="W58" s="14"/>
+      <c r="X58" s="14"/>
+      <c r="Y58" s="14"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="2"/>
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="2"/>
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="2"/>
+      <c r="AH58" s="2"/>
+      <c r="AI58" s="2"/>
+      <c r="AJ58" s="2"/>
+      <c r="AK58" s="2"/>
+      <c r="AL58" s="48"/>
+      <c r="AM58" s="48"/>
+      <c r="AN58" s="48"/>
+      <c r="AO58" s="48"/>
+      <c r="AP58" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ58" s="5"/>
+      <c r="AR58" s="55"/>
+      <c r="AS58" s="5"/>
+      <c r="AT58" s="55"/>
+      <c r="AU58" s="5"/>
+      <c r="AV58" s="55"/>
+      <c r="AW58" s="5"/>
+      <c r="AX58" s="5"/>
+      <c r="AY58" s="5"/>
+      <c r="AZ58" s="5"/>
+      <c r="BA58" s="5"/>
+      <c r="BB58" s="5"/>
+      <c r="BC58" s="5"/>
+    </row>
+    <row r="59" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U59" s="54"/>
+      <c r="V59" s="54"/>
+      <c r="W59" s="14"/>
+      <c r="X59" s="14"/>
+      <c r="Y59" s="14"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="2"/>
+      <c r="AH59" s="2"/>
+      <c r="AI59" s="2"/>
+      <c r="AJ59" s="2"/>
+      <c r="AK59" s="2"/>
+      <c r="AL59" s="48"/>
+      <c r="AM59" s="48"/>
+      <c r="AN59" s="48"/>
+      <c r="AO59" s="48"/>
+      <c r="AP59" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ59" s="5"/>
+      <c r="AR59" s="55"/>
+      <c r="AS59" s="5"/>
+      <c r="AT59" s="55"/>
+      <c r="AU59" s="5"/>
+      <c r="AV59" s="55"/>
+      <c r="AW59" s="5"/>
+      <c r="AX59" s="5"/>
+      <c r="AY59" s="5"/>
+      <c r="AZ59" s="5"/>
+      <c r="BA59" s="5"/>
+      <c r="BB59" s="5"/>
+      <c r="BC59" s="5"/>
+    </row>
+    <row r="60" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U60" s="54"/>
+      <c r="V60" s="54"/>
+      <c r="W60" s="14"/>
+      <c r="X60" s="14"/>
+      <c r="Y60" s="14"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2"/>
+      <c r="AG60" s="2"/>
+      <c r="AH60" s="2"/>
+      <c r="AI60" s="2"/>
+      <c r="AJ60" s="2"/>
+      <c r="AK60" s="2"/>
+      <c r="AL60" s="48"/>
+      <c r="AM60" s="48"/>
+      <c r="AN60" s="48"/>
+      <c r="AO60" s="48"/>
+      <c r="AP60" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ60" s="5"/>
+      <c r="AR60" s="55"/>
+      <c r="AS60" s="5"/>
+      <c r="AT60" s="55"/>
+      <c r="AU60" s="5"/>
+      <c r="AV60" s="55"/>
+      <c r="AW60" s="5"/>
+      <c r="AX60" s="5"/>
+      <c r="AY60" s="5"/>
+      <c r="AZ60" s="5"/>
+      <c r="BA60" s="5"/>
+      <c r="BB60" s="5"/>
+      <c r="BC60" s="5"/>
+    </row>
+    <row r="61" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U61" s="54"/>
+      <c r="V61" s="54"/>
+      <c r="W61" s="14"/>
+      <c r="X61" s="14"/>
+      <c r="Y61" s="14"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="2"/>
+      <c r="AG61" s="2"/>
+      <c r="AH61" s="2"/>
+      <c r="AI61" s="2"/>
+      <c r="AJ61" s="2"/>
+      <c r="AK61" s="2"/>
+      <c r="AL61" s="48"/>
+      <c r="AM61" s="48"/>
+      <c r="AN61" s="48"/>
+      <c r="AO61" s="48"/>
+      <c r="AP61" s="58"/>
+      <c r="AQ61" s="5"/>
+      <c r="AR61" s="55"/>
+      <c r="AS61" s="5"/>
+      <c r="AT61" s="55"/>
+      <c r="AU61" s="5"/>
+      <c r="AV61" s="55"/>
+      <c r="AW61" s="5"/>
+      <c r="AX61" s="5"/>
+      <c r="AY61" s="5"/>
+      <c r="AZ61" s="5"/>
+      <c r="BA61" s="5"/>
+      <c r="BB61" s="5"/>
+      <c r="BC61" s="5"/>
+    </row>
+    <row r="62" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U62" s="54"/>
+      <c r="V62" s="54"/>
+      <c r="W62" s="14"/>
+      <c r="X62" s="14"/>
+      <c r="Y62" s="14"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="2"/>
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="2"/>
+      <c r="AG62" s="2"/>
+      <c r="AH62" s="2"/>
+      <c r="AI62" s="2"/>
+      <c r="AJ62" s="2"/>
+      <c r="AK62" s="2"/>
+      <c r="AL62" s="48"/>
+      <c r="AM62" s="48"/>
+      <c r="AN62" s="48"/>
+      <c r="AO62" s="48"/>
+      <c r="AP62" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ62" s="5"/>
+      <c r="AR62" s="55"/>
+      <c r="AS62" s="5"/>
+      <c r="AT62" s="55"/>
+      <c r="AU62" s="5"/>
+      <c r="AV62" s="55"/>
+      <c r="AW62" s="5"/>
+      <c r="AX62" s="5"/>
+      <c r="AY62" s="5"/>
+      <c r="AZ62" s="5"/>
+      <c r="BA62" s="5"/>
+      <c r="BB62" s="5"/>
+      <c r="BC62" s="5"/>
+    </row>
+    <row r="63" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U63" s="54"/>
+      <c r="V63" s="54"/>
+      <c r="W63" s="14"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="14"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="2"/>
+      <c r="AG63" s="2"/>
+      <c r="AH63" s="2"/>
+      <c r="AI63" s="2"/>
+      <c r="AJ63" s="2"/>
+      <c r="AK63" s="2"/>
+      <c r="AL63" s="48"/>
+      <c r="AM63" s="48"/>
+      <c r="AN63" s="48"/>
+      <c r="AO63" s="48"/>
+      <c r="AP63" s="58"/>
+      <c r="AQ63" s="5"/>
+      <c r="AR63" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS63" s="5"/>
+      <c r="AT63" s="55"/>
+      <c r="AU63" s="5"/>
+      <c r="AV63" s="55"/>
+      <c r="AW63" s="5"/>
+      <c r="AX63" s="5"/>
+      <c r="AY63" s="5"/>
+      <c r="AZ63" s="5"/>
+      <c r="BA63" s="5"/>
+      <c r="BB63" s="5"/>
+      <c r="BC63" s="5"/>
+    </row>
+    <row r="64" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U64" s="54"/>
+      <c r="V64" s="54"/>
+      <c r="W64" s="14"/>
+      <c r="X64" s="14"/>
+      <c r="Y64" s="14"/>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
+      <c r="AB64" s="2"/>
+      <c r="AC64" s="2"/>
+      <c r="AD64" s="2"/>
+      <c r="AE64" s="2"/>
+      <c r="AF64" s="2"/>
+      <c r="AG64" s="2"/>
+      <c r="AH64" s="2"/>
+      <c r="AI64" s="2"/>
+      <c r="AJ64" s="2"/>
+      <c r="AK64" s="2"/>
+      <c r="AL64" s="48"/>
+      <c r="AM64" s="48"/>
+      <c r="AN64" s="48"/>
+      <c r="AO64" s="48"/>
+      <c r="AP64" s="58"/>
+      <c r="AQ64" s="5"/>
+      <c r="AR64" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS64" s="5"/>
+      <c r="AT64" s="55"/>
+      <c r="AU64" s="5"/>
+      <c r="AV64" s="55"/>
+      <c r="AW64" s="5"/>
+      <c r="AX64" s="5"/>
+      <c r="AY64" s="5"/>
+      <c r="AZ64" s="5"/>
+      <c r="BA64" s="5"/>
+      <c r="BB64" s="5"/>
+      <c r="BC64" s="5"/>
+    </row>
+    <row r="65" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U65" s="54"/>
+      <c r="V65" s="54"/>
+      <c r="W65" s="14"/>
+      <c r="X65" s="14"/>
+      <c r="Y65" s="14"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="2"/>
+      <c r="AD65" s="2"/>
+      <c r="AE65" s="2"/>
+      <c r="AF65" s="2"/>
+      <c r="AG65" s="2"/>
+      <c r="AH65" s="2"/>
+      <c r="AI65" s="2"/>
+      <c r="AJ65" s="2"/>
+      <c r="AK65" s="2"/>
+      <c r="AL65" s="48"/>
+      <c r="AM65" s="48"/>
+      <c r="AN65" s="48"/>
+      <c r="AO65" s="48"/>
+      <c r="AP65" s="58"/>
+      <c r="AQ65" s="5"/>
+      <c r="AR65" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS65" s="5"/>
+      <c r="AT65" s="55"/>
+      <c r="AU65" s="5"/>
+      <c r="AV65" s="55"/>
+      <c r="AW65" s="5"/>
+      <c r="AX65" s="5"/>
+      <c r="AY65" s="5"/>
+      <c r="AZ65" s="5"/>
+      <c r="BA65" s="5"/>
+      <c r="BB65" s="5"/>
+      <c r="BC65" s="5"/>
+    </row>
+    <row r="66" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U66" s="54"/>
+      <c r="V66" s="54"/>
+      <c r="W66" s="14"/>
+      <c r="X66" s="14"/>
+      <c r="Y66" s="14"/>
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="2"/>
+      <c r="AD66" s="2"/>
+      <c r="AE66" s="2"/>
+      <c r="AF66" s="2"/>
+      <c r="AG66" s="2"/>
+      <c r="AH66" s="2"/>
+      <c r="AI66" s="2"/>
+      <c r="AJ66" s="2"/>
+      <c r="AK66" s="2"/>
+      <c r="AL66" s="48"/>
+      <c r="AM66" s="48"/>
+      <c r="AN66" s="48"/>
+      <c r="AO66" s="48"/>
+      <c r="AP66" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ66" s="5"/>
+      <c r="AR66" s="55"/>
+      <c r="AS66" s="5"/>
+      <c r="AT66" s="55"/>
+      <c r="AU66" s="5"/>
+      <c r="AV66" s="55"/>
+      <c r="AW66" s="5"/>
+      <c r="AX66" s="5"/>
+      <c r="AY66" s="5"/>
+      <c r="AZ66" s="5"/>
+      <c r="BA66" s="5"/>
+      <c r="BB66" s="5"/>
+      <c r="BC66" s="5"/>
+    </row>
+    <row r="67" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U67" s="54"/>
+      <c r="V67" s="54"/>
+      <c r="W67" s="14"/>
+      <c r="X67" s="14"/>
+      <c r="Y67" s="14"/>
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="2"/>
+      <c r="AE67" s="2"/>
+      <c r="AF67" s="2"/>
+      <c r="AG67" s="2"/>
+      <c r="AH67" s="2"/>
+      <c r="AI67" s="2"/>
+      <c r="AJ67" s="2"/>
+      <c r="AK67" s="2"/>
+      <c r="AL67" s="48"/>
+      <c r="AM67" s="48"/>
+      <c r="AN67" s="48"/>
+      <c r="AO67" s="48"/>
+      <c r="AP67" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ67" s="5"/>
+      <c r="AR67" s="55"/>
+      <c r="AS67" s="5"/>
+      <c r="AT67" s="55"/>
+      <c r="AU67" s="5"/>
+      <c r="AV67" s="55"/>
+      <c r="AW67" s="5"/>
+      <c r="AX67" s="5"/>
+      <c r="AY67" s="5"/>
+      <c r="AZ67" s="5"/>
+      <c r="BA67" s="5"/>
+      <c r="BB67" s="5"/>
+      <c r="BC67" s="5"/>
+    </row>
+    <row r="68" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U68" s="54"/>
+      <c r="V68" s="54"/>
+      <c r="W68" s="14"/>
+      <c r="X68" s="14"/>
+      <c r="Y68" s="14"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
+      <c r="AD68" s="2"/>
+      <c r="AE68" s="2"/>
+      <c r="AF68" s="2"/>
+      <c r="AG68" s="2"/>
+      <c r="AH68" s="2"/>
+      <c r="AI68" s="2"/>
+      <c r="AJ68" s="2"/>
+      <c r="AK68" s="2"/>
+      <c r="AL68" s="48"/>
+      <c r="AM68" s="48"/>
+      <c r="AN68" s="48"/>
+      <c r="AO68" s="48"/>
+      <c r="AP68" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ68" s="5"/>
+      <c r="AR68" s="55"/>
+      <c r="AS68" s="5"/>
+      <c r="AT68" s="55"/>
+      <c r="AU68" s="5"/>
+      <c r="AV68" s="55"/>
+      <c r="AW68" s="5"/>
+      <c r="AX68" s="5"/>
+      <c r="AY68" s="5"/>
+      <c r="AZ68" s="5"/>
+      <c r="BA68" s="5"/>
+      <c r="BB68" s="5"/>
+      <c r="BC68" s="5"/>
+    </row>
+    <row r="69" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U69" s="54"/>
+      <c r="V69" s="54"/>
+      <c r="W69" s="14"/>
+      <c r="X69" s="14"/>
+      <c r="Y69" s="14"/>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="2"/>
+      <c r="AE69" s="2"/>
+      <c r="AF69" s="2"/>
+      <c r="AG69" s="2"/>
+      <c r="AH69" s="2"/>
+      <c r="AI69" s="2"/>
+      <c r="AJ69" s="2"/>
+      <c r="AK69" s="2"/>
+      <c r="AL69" s="48"/>
+      <c r="AM69" s="48"/>
+      <c r="AN69" s="48"/>
+      <c r="AO69" s="48"/>
+      <c r="AP69" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ69" s="5"/>
+      <c r="AR69" s="55"/>
+      <c r="AS69" s="5"/>
+      <c r="AT69" s="55"/>
+      <c r="AU69" s="5"/>
+      <c r="AV69" s="55"/>
+      <c r="AW69" s="5"/>
+      <c r="AX69" s="5"/>
+      <c r="AY69" s="5"/>
+      <c r="AZ69" s="5"/>
+      <c r="BA69" s="5"/>
+      <c r="BB69" s="5"/>
+      <c r="BC69" s="5"/>
+    </row>
+    <row r="70" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U70" s="54"/>
+      <c r="V70" s="54"/>
+      <c r="W70" s="14"/>
+      <c r="X70" s="14"/>
+      <c r="Y70" s="14"/>
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="2"/>
+      <c r="AD70" s="2"/>
+      <c r="AE70" s="2"/>
+      <c r="AF70" s="2"/>
+      <c r="AG70" s="2"/>
+      <c r="AH70" s="2"/>
+      <c r="AI70" s="2"/>
+      <c r="AJ70" s="2"/>
+      <c r="AK70" s="2"/>
+      <c r="AL70" s="48"/>
+      <c r="AM70" s="48"/>
+      <c r="AN70" s="48"/>
+      <c r="AO70" s="48"/>
+      <c r="AP70" s="58"/>
+      <c r="AQ70" s="5"/>
+      <c r="AR70" s="55"/>
+      <c r="AS70" s="5"/>
+      <c r="AT70" s="55"/>
+      <c r="AU70" s="5"/>
+      <c r="AV70" s="55"/>
+      <c r="AW70" s="5"/>
+      <c r="AX70" s="5"/>
+      <c r="AY70" s="5"/>
+      <c r="AZ70" s="5"/>
+      <c r="BA70" s="5"/>
+      <c r="BB70" s="5"/>
+      <c r="BC70" s="5"/>
+    </row>
+    <row r="71" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U71" s="54"/>
+      <c r="V71" s="54"/>
+      <c r="W71" s="14"/>
+      <c r="X71" s="14"/>
+      <c r="Y71" s="14"/>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="2"/>
+      <c r="AC71" s="2"/>
+      <c r="AD71" s="2"/>
+      <c r="AE71" s="2"/>
+      <c r="AF71" s="2"/>
+      <c r="AG71" s="2"/>
+      <c r="AH71" s="2"/>
+      <c r="AI71" s="2"/>
+      <c r="AJ71" s="2"/>
+      <c r="AK71" s="2"/>
+      <c r="AL71" s="48"/>
+      <c r="AM71" s="48"/>
+      <c r="AN71" s="48"/>
+      <c r="AO71" s="48"/>
+      <c r="AP71" s="58"/>
+      <c r="AQ71" s="5"/>
+      <c r="AR71" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS71" s="5"/>
+      <c r="AT71" s="55"/>
+      <c r="AU71" s="5"/>
+      <c r="AV71" s="55"/>
+      <c r="AW71" s="5"/>
+      <c r="AX71" s="5"/>
+      <c r="AY71" s="5"/>
+      <c r="AZ71" s="5"/>
+      <c r="BA71" s="5"/>
+      <c r="BB71" s="5"/>
+      <c r="BC71" s="5"/>
+    </row>
+    <row r="72" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U72" s="54"/>
+      <c r="V72" s="54"/>
+      <c r="W72" s="14"/>
+      <c r="X72" s="14"/>
+      <c r="Y72" s="14"/>
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="2"/>
+      <c r="AC72" s="2"/>
+      <c r="AD72" s="2"/>
+      <c r="AE72" s="2"/>
+      <c r="AF72" s="2"/>
+      <c r="AG72" s="2"/>
+      <c r="AH72" s="2"/>
+      <c r="AI72" s="2"/>
+      <c r="AJ72" s="2"/>
+      <c r="AK72" s="2"/>
+      <c r="AL72" s="48"/>
+      <c r="AM72" s="48"/>
+      <c r="AN72" s="48"/>
+      <c r="AO72" s="48"/>
+      <c r="AP72" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ72" s="5"/>
+      <c r="AR72" s="55"/>
+      <c r="AS72" s="5"/>
+      <c r="AT72" s="55"/>
+      <c r="AU72" s="5"/>
+      <c r="AV72" s="55"/>
+      <c r="AW72" s="5"/>
+      <c r="AX72" s="5"/>
+      <c r="AY72" s="5"/>
+      <c r="AZ72" s="5"/>
+      <c r="BA72" s="5"/>
+      <c r="BB72" s="5"/>
+      <c r="BC72" s="5"/>
+    </row>
+    <row r="73" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U73" s="54"/>
+      <c r="V73" s="54"/>
+      <c r="W73" s="14"/>
+      <c r="X73" s="14"/>
+      <c r="Y73" s="14"/>
+      <c r="Z73" s="2"/>
+      <c r="AA73" s="2"/>
+      <c r="AB73" s="2"/>
+      <c r="AC73" s="2"/>
+      <c r="AD73" s="2"/>
+      <c r="AE73" s="2"/>
+      <c r="AF73" s="2"/>
+      <c r="AG73" s="2"/>
+      <c r="AH73" s="2"/>
+      <c r="AI73" s="2"/>
+      <c r="AJ73" s="2"/>
+      <c r="AK73" s="2"/>
+      <c r="AL73" s="48"/>
+      <c r="AM73" s="48"/>
+      <c r="AN73" s="48"/>
+      <c r="AO73" s="48"/>
+      <c r="AP73" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ73" s="5"/>
+      <c r="AR73" s="55"/>
+      <c r="AS73" s="5"/>
+      <c r="AT73" s="55"/>
+      <c r="AU73" s="5"/>
+      <c r="AV73" s="55"/>
+      <c r="AW73" s="5"/>
+      <c r="AX73" s="5"/>
+      <c r="AY73" s="5"/>
+      <c r="AZ73" s="5"/>
+      <c r="BA73" s="5"/>
+      <c r="BB73" s="5"/>
+      <c r="BC73" s="5"/>
+    </row>
+    <row r="74" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U74" s="54"/>
+      <c r="V74" s="54"/>
+      <c r="W74" s="14"/>
+      <c r="X74" s="14"/>
+      <c r="Y74" s="14"/>
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="2"/>
+      <c r="AC74" s="2"/>
+      <c r="AD74" s="2"/>
+      <c r="AE74" s="2"/>
+      <c r="AF74" s="2"/>
+      <c r="AG74" s="2"/>
+      <c r="AH74" s="2"/>
+      <c r="AI74" s="2"/>
+      <c r="AJ74" s="2"/>
+      <c r="AK74" s="2"/>
+      <c r="AL74" s="48"/>
+      <c r="AM74" s="48"/>
+      <c r="AN74" s="48"/>
+      <c r="AO74" s="48"/>
+      <c r="AP74" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ74" s="5"/>
+      <c r="AR74" s="55"/>
+      <c r="AS74" s="5"/>
+      <c r="AT74" s="55"/>
+      <c r="AU74" s="5"/>
+      <c r="AV74" s="55"/>
+      <c r="AW74" s="5"/>
+      <c r="AX74" s="5"/>
+      <c r="AY74" s="5"/>
+      <c r="AZ74" s="5"/>
+      <c r="BA74" s="5"/>
+      <c r="BB74" s="5"/>
+      <c r="BC74" s="5"/>
+    </row>
+    <row r="75" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U75" s="54"/>
+      <c r="V75" s="54"/>
+      <c r="W75" s="14"/>
+      <c r="X75" s="14"/>
+      <c r="Y75" s="14"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="2"/>
+      <c r="AF75" s="2"/>
+      <c r="AG75" s="2"/>
+      <c r="AH75" s="2"/>
+      <c r="AI75" s="2"/>
+      <c r="AJ75" s="2"/>
+      <c r="AK75" s="2"/>
+      <c r="AL75" s="48"/>
+      <c r="AM75" s="48"/>
+      <c r="AN75" s="48"/>
+      <c r="AO75" s="48"/>
+      <c r="AP75" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ75" s="5"/>
+      <c r="AR75" s="55"/>
+      <c r="AS75" s="5"/>
+      <c r="AT75" s="55"/>
+      <c r="AU75" s="5"/>
+      <c r="AV75" s="55"/>
+      <c r="AW75" s="5"/>
+      <c r="AX75" s="5"/>
+      <c r="AY75" s="5"/>
+      <c r="AZ75" s="5"/>
+      <c r="BA75" s="5"/>
+      <c r="BB75" s="5"/>
+      <c r="BC75" s="5"/>
+    </row>
+    <row r="76" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U76" s="54"/>
+      <c r="V76" s="54"/>
+      <c r="W76" s="14"/>
+      <c r="X76" s="14"/>
+      <c r="Y76" s="14"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="2"/>
+      <c r="AD76" s="2"/>
+      <c r="AE76" s="2"/>
+      <c r="AF76" s="2"/>
+      <c r="AG76" s="2"/>
+      <c r="AH76" s="2"/>
+      <c r="AI76" s="2"/>
+      <c r="AJ76" s="2"/>
+      <c r="AK76" s="2"/>
+      <c r="AL76" s="48"/>
+      <c r="AM76" s="48"/>
+      <c r="AN76" s="48"/>
+      <c r="AO76" s="48"/>
+      <c r="AP76" s="58"/>
+      <c r="AQ76" s="5"/>
+      <c r="AR76" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS76" s="5"/>
+      <c r="AT76" s="55"/>
+      <c r="AU76" s="5"/>
+      <c r="AV76" s="55"/>
+      <c r="AW76" s="5"/>
+      <c r="AX76" s="5"/>
+      <c r="AY76" s="5"/>
+      <c r="AZ76" s="5"/>
+      <c r="BA76" s="5"/>
+      <c r="BB76" s="5"/>
+      <c r="BC76" s="5"/>
+    </row>
+    <row r="77" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U77" s="54"/>
+      <c r="V77" s="54"/>
+      <c r="W77" s="14"/>
+      <c r="X77" s="14"/>
+      <c r="Y77" s="14"/>
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="2"/>
+      <c r="AD77" s="2"/>
+      <c r="AE77" s="2"/>
+      <c r="AF77" s="2"/>
+      <c r="AG77" s="2"/>
+      <c r="AH77" s="2"/>
+      <c r="AI77" s="2"/>
+      <c r="AJ77" s="2"/>
+      <c r="AK77" s="2"/>
+      <c r="AL77" s="48"/>
+      <c r="AM77" s="48"/>
+      <c r="AN77" s="48"/>
+      <c r="AO77" s="48"/>
+      <c r="AP77" s="58"/>
+      <c r="AQ77" s="5"/>
+      <c r="AR77" s="55"/>
+      <c r="AS77" s="5"/>
+      <c r="AT77" s="55"/>
+      <c r="AU77" s="5"/>
+      <c r="AV77" s="55"/>
+      <c r="AW77" s="5"/>
+      <c r="AX77" s="5"/>
+      <c r="AY77" s="5"/>
+      <c r="AZ77" s="5"/>
+      <c r="BA77" s="5"/>
+      <c r="BB77" s="5"/>
+      <c r="BC77" s="5"/>
+    </row>
+    <row r="78" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U78" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="V78" s="80"/>
+      <c r="W78" s="64"/>
+      <c r="X78" s="64"/>
+      <c r="Y78" s="64"/>
+      <c r="Z78" s="65"/>
+      <c r="AA78" s="65"/>
+      <c r="AB78" s="65"/>
+      <c r="AC78" s="65"/>
+      <c r="AD78" s="65"/>
+      <c r="AE78" s="65"/>
+      <c r="AF78" s="65"/>
+      <c r="AG78" s="65"/>
+      <c r="AH78" s="65"/>
+      <c r="AI78" s="65"/>
+      <c r="AJ78" s="65"/>
+      <c r="AK78" s="65"/>
+      <c r="AL78" s="66"/>
+      <c r="AM78" s="66"/>
+      <c r="AN78" s="66"/>
+      <c r="AO78" s="66"/>
+      <c r="AP78" s="67"/>
+      <c r="AQ78" s="68"/>
+      <c r="AR78" s="69"/>
+      <c r="AS78" s="68"/>
+      <c r="AT78" s="69"/>
+      <c r="AU78" s="68"/>
+      <c r="AV78" s="69"/>
+      <c r="AW78" s="68"/>
+      <c r="AX78" s="68"/>
+      <c r="AY78" s="68"/>
+      <c r="AZ78" s="68"/>
+      <c r="BA78" s="68"/>
+      <c r="BB78" s="68"/>
+      <c r="BC78" s="70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U79" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="V79" s="89"/>
+      <c r="W79" s="61"/>
+      <c r="X79" s="61"/>
+      <c r="Y79" s="61"/>
+      <c r="Z79" s="46"/>
+      <c r="AA79" s="46"/>
+      <c r="AB79" s="46"/>
+      <c r="AC79" s="46"/>
+      <c r="AD79" s="46"/>
+      <c r="AE79" s="46"/>
+      <c r="AF79" s="46"/>
+      <c r="AG79" s="46"/>
+      <c r="AH79" s="46"/>
+      <c r="AI79" s="46"/>
+      <c r="AJ79" s="46"/>
+      <c r="AK79" s="46"/>
+      <c r="AL79" s="62"/>
+      <c r="AM79" s="62"/>
+      <c r="AN79" s="62"/>
+      <c r="AO79" s="62"/>
+      <c r="AP79" s="59"/>
+      <c r="AQ79" s="63"/>
+      <c r="AR79" s="56"/>
+      <c r="AS79" s="63"/>
+      <c r="AT79" s="56"/>
+      <c r="AU79" s="63"/>
+      <c r="AV79" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW79" s="63"/>
+      <c r="AX79" s="63"/>
+      <c r="AY79" s="63"/>
+      <c r="AZ79" s="63"/>
+      <c r="BA79" s="63"/>
+      <c r="BB79" s="63"/>
+      <c r="BC79" s="71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U80" s="88"/>
+      <c r="V80" s="89"/>
+      <c r="W80" s="61"/>
+      <c r="X80" s="61"/>
+      <c r="Y80" s="61"/>
+      <c r="Z80" s="46"/>
+      <c r="AA80" s="46"/>
+      <c r="AB80" s="46"/>
+      <c r="AC80" s="46"/>
+      <c r="AD80" s="46"/>
+      <c r="AE80" s="46"/>
+      <c r="AF80" s="46"/>
+      <c r="AG80" s="46"/>
+      <c r="AH80" s="46"/>
+      <c r="AI80" s="46"/>
+      <c r="AJ80" s="46"/>
+      <c r="AK80" s="46"/>
+      <c r="AL80" s="62"/>
+      <c r="AM80" s="62"/>
+      <c r="AN80" s="62"/>
+      <c r="AO80" s="62"/>
+      <c r="AP80" s="59"/>
+      <c r="AQ80" s="63"/>
+      <c r="AR80" s="56"/>
+      <c r="AS80" s="63"/>
+      <c r="AT80" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU80" s="63"/>
+      <c r="AV80" s="56"/>
+      <c r="AW80" s="63"/>
+      <c r="AX80" s="63"/>
+      <c r="AY80" s="63"/>
+      <c r="AZ80" s="63"/>
+      <c r="BA80" s="63"/>
+      <c r="BB80" s="63"/>
+      <c r="BC80" s="71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U81" s="95"/>
+      <c r="V81" s="89"/>
+      <c r="W81" s="61"/>
+      <c r="X81" s="61"/>
+      <c r="Y81" s="61"/>
+      <c r="Z81" s="46"/>
+      <c r="AA81" s="46"/>
+      <c r="AB81" s="46"/>
+      <c r="AC81" s="46"/>
+      <c r="AD81" s="46"/>
+      <c r="AE81" s="46"/>
+      <c r="AF81" s="46"/>
+      <c r="AG81" s="46"/>
+      <c r="AH81" s="46"/>
+      <c r="AI81" s="46"/>
+      <c r="AJ81" s="46"/>
+      <c r="AK81" s="46"/>
+      <c r="AL81" s="62"/>
+      <c r="AM81" s="62"/>
+      <c r="AN81" s="62"/>
+      <c r="AO81" s="62"/>
+      <c r="AP81" s="59"/>
+      <c r="AQ81" s="63"/>
+      <c r="AR81" s="56"/>
+      <c r="AS81" s="63"/>
+      <c r="AT81" s="56"/>
+      <c r="AU81" s="63"/>
+      <c r="AV81" s="56"/>
+      <c r="AW81" s="63"/>
+      <c r="AX81" s="63"/>
+      <c r="AY81" s="63"/>
+      <c r="AZ81" s="63"/>
+      <c r="BA81" s="63"/>
+      <c r="BB81" s="63"/>
+      <c r="BC81" s="71"/>
+    </row>
+    <row r="82" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U82" s="95"/>
+      <c r="V82" s="89"/>
+      <c r="W82" s="61"/>
+      <c r="X82" s="61"/>
+      <c r="Y82" s="61"/>
+      <c r="Z82" s="46"/>
+      <c r="AA82" s="46"/>
+      <c r="AB82" s="46"/>
+      <c r="AC82" s="46"/>
+      <c r="AD82" s="46"/>
+      <c r="AE82" s="46"/>
+      <c r="AF82" s="46"/>
+      <c r="AG82" s="46"/>
+      <c r="AH82" s="46"/>
+      <c r="AI82" s="46"/>
+      <c r="AJ82" s="46"/>
+      <c r="AK82" s="46"/>
+      <c r="AL82" s="62"/>
+      <c r="AM82" s="62"/>
+      <c r="AN82" s="62"/>
+      <c r="AO82" s="62"/>
+      <c r="AP82" s="59"/>
+      <c r="AQ82" s="63"/>
+      <c r="AR82" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS82" s="63"/>
+      <c r="AT82" s="56"/>
+      <c r="AU82" s="63"/>
+      <c r="AV82" s="56"/>
+      <c r="AW82" s="63"/>
+      <c r="AX82" s="63"/>
+      <c r="AY82" s="63"/>
+      <c r="AZ82" s="63"/>
+      <c r="BA82" s="63"/>
+      <c r="BB82" s="63"/>
+      <c r="BC82" s="71"/>
+    </row>
+    <row r="83" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U83" s="88"/>
+      <c r="V83" s="89"/>
+      <c r="W83" s="61"/>
+      <c r="X83" s="61"/>
+      <c r="Y83" s="61"/>
+      <c r="Z83" s="46"/>
+      <c r="AA83" s="46"/>
+      <c r="AB83" s="46"/>
+      <c r="AC83" s="46"/>
+      <c r="AD83" s="46"/>
+      <c r="AE83" s="46"/>
+      <c r="AF83" s="46"/>
+      <c r="AG83" s="46"/>
+      <c r="AH83" s="46"/>
+      <c r="AI83" s="46"/>
+      <c r="AJ83" s="46"/>
+      <c r="AK83" s="46"/>
+      <c r="AL83" s="62"/>
+      <c r="AM83" s="62"/>
+      <c r="AN83" s="62"/>
+      <c r="AO83" s="62"/>
+      <c r="AP83" s="59"/>
+      <c r="AQ83" s="63"/>
+      <c r="AR83" s="56"/>
+      <c r="AS83" s="63"/>
+      <c r="AT83" s="56"/>
+      <c r="AU83" s="63"/>
+      <c r="AV83" s="56"/>
+      <c r="AW83" s="63"/>
+      <c r="AX83" s="63"/>
+      <c r="AY83" s="63"/>
+      <c r="AZ83" s="63"/>
+      <c r="BA83" s="63"/>
+      <c r="BB83" s="63"/>
+      <c r="BC83" s="71"/>
+    </row>
+    <row r="84" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U84" s="95"/>
+      <c r="V84" s="89"/>
+      <c r="W84" s="61"/>
+      <c r="X84" s="61"/>
+      <c r="Y84" s="61"/>
+      <c r="Z84" s="46"/>
+      <c r="AA84" s="46"/>
+      <c r="AB84" s="46"/>
+      <c r="AC84" s="46"/>
+      <c r="AD84" s="46"/>
+      <c r="AE84" s="46"/>
+      <c r="AF84" s="46"/>
+      <c r="AG84" s="46"/>
+      <c r="AH84" s="46"/>
+      <c r="AI84" s="46"/>
+      <c r="AJ84" s="46"/>
+      <c r="AK84" s="46"/>
+      <c r="AL84" s="62"/>
+      <c r="AM84" s="62"/>
+      <c r="AN84" s="62"/>
+      <c r="AO84" s="62"/>
+      <c r="AP84" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ84" s="63"/>
+      <c r="AR84" s="56"/>
+      <c r="AS84" s="63"/>
+      <c r="AT84" s="56"/>
+      <c r="AU84" s="63"/>
+      <c r="AV84" s="56"/>
+      <c r="AW84" s="63"/>
+      <c r="AX84" s="63"/>
+      <c r="AY84" s="63"/>
+      <c r="AZ84" s="63"/>
+      <c r="BA84" s="63"/>
+      <c r="BB84" s="63"/>
+      <c r="BC84" s="71"/>
+    </row>
+    <row r="85" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U85" s="95"/>
+      <c r="V85" s="89"/>
+      <c r="W85" s="61"/>
+      <c r="X85" s="61"/>
+      <c r="Y85" s="61"/>
+      <c r="Z85" s="46"/>
+      <c r="AA85" s="46"/>
+      <c r="AB85" s="46"/>
+      <c r="AC85" s="46"/>
+      <c r="AD85" s="46"/>
+      <c r="AE85" s="46"/>
+      <c r="AF85" s="46"/>
+      <c r="AG85" s="46"/>
+      <c r="AH85" s="46"/>
+      <c r="AI85" s="46"/>
+      <c r="AJ85" s="46"/>
+      <c r="AK85" s="46"/>
+      <c r="AL85" s="62"/>
+      <c r="AM85" s="62"/>
+      <c r="AN85" s="62"/>
+      <c r="AO85" s="62"/>
+      <c r="AP85" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ85" s="63"/>
+      <c r="AR85" s="56"/>
+      <c r="AS85" s="63"/>
+      <c r="AT85" s="56"/>
+      <c r="AU85" s="63"/>
+      <c r="AV85" s="56"/>
+      <c r="AW85" s="63"/>
+      <c r="AX85" s="63"/>
+      <c r="AY85" s="63"/>
+      <c r="AZ85" s="63"/>
+      <c r="BA85" s="63"/>
+      <c r="BB85" s="63"/>
+      <c r="BC85" s="71"/>
+    </row>
+    <row r="86" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U86" s="88"/>
+      <c r="V86" s="89"/>
+      <c r="W86" s="72"/>
+      <c r="X86" s="72"/>
+      <c r="Y86" s="72"/>
+      <c r="Z86" s="73"/>
+      <c r="AA86" s="73"/>
+      <c r="AB86" s="73"/>
+      <c r="AC86" s="73"/>
+      <c r="AD86" s="73"/>
+      <c r="AE86" s="73"/>
+      <c r="AF86" s="73"/>
+      <c r="AG86" s="73"/>
+      <c r="AH86" s="73"/>
+      <c r="AI86" s="73"/>
+      <c r="AJ86" s="73"/>
+      <c r="AK86" s="73"/>
+      <c r="AL86" s="74"/>
+      <c r="AM86" s="74"/>
+      <c r="AN86" s="74"/>
+      <c r="AO86" s="74"/>
+      <c r="AP86" s="75"/>
+      <c r="AQ86" s="76"/>
+      <c r="AR86" s="77"/>
+      <c r="AS86" s="76"/>
+      <c r="AT86" s="77"/>
+      <c r="AU86" s="76"/>
+      <c r="AV86" s="77"/>
+      <c r="AW86" s="76"/>
+      <c r="AX86" s="76"/>
+      <c r="AY86" s="76"/>
+      <c r="AZ86" s="76"/>
+      <c r="BA86" s="76"/>
+      <c r="BB86" s="76"/>
+      <c r="BC86" s="78"/>
+    </row>
+    <row r="87" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U87" s="95"/>
+      <c r="V87" s="89"/>
+      <c r="W87" s="49"/>
+      <c r="X87" s="49"/>
+      <c r="Y87" s="49"/>
+      <c r="Z87" s="50"/>
+      <c r="AA87" s="50"/>
+      <c r="AB87" s="50"/>
+      <c r="AC87" s="50"/>
+      <c r="AD87" s="50"/>
+      <c r="AE87" s="50"/>
+      <c r="AF87" s="50"/>
+      <c r="AG87" s="50"/>
+      <c r="AH87" s="50"/>
+      <c r="AI87" s="50"/>
+      <c r="AJ87" s="50"/>
+      <c r="AK87" s="50"/>
+      <c r="AL87" s="51"/>
+      <c r="AM87" s="51"/>
+      <c r="AN87" s="51"/>
+      <c r="AO87" s="51"/>
+      <c r="AP87" s="59"/>
+      <c r="AQ87" s="28"/>
+      <c r="AR87" s="56"/>
+      <c r="AS87" s="28"/>
+      <c r="AT87" s="56"/>
+      <c r="AU87" s="28"/>
+      <c r="AV87" s="56"/>
+      <c r="AW87" s="28"/>
+      <c r="AX87" s="28"/>
+      <c r="AY87" s="28"/>
+      <c r="AZ87" s="28"/>
+      <c r="BA87" s="28"/>
+      <c r="BB87" s="28"/>
+      <c r="BC87" s="52"/>
+    </row>
+    <row r="88" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U88" s="95"/>
+      <c r="V88" s="89"/>
+      <c r="W88" s="49"/>
+      <c r="X88" s="49"/>
+      <c r="Y88" s="49"/>
+      <c r="Z88" s="50"/>
+      <c r="AA88" s="50"/>
+      <c r="AB88" s="50"/>
+      <c r="AC88" s="50"/>
+      <c r="AD88" s="50"/>
+      <c r="AE88" s="50"/>
+      <c r="AF88" s="50"/>
+      <c r="AG88" s="50"/>
+      <c r="AH88" s="50"/>
+      <c r="AI88" s="50"/>
+      <c r="AJ88" s="50"/>
+      <c r="AK88" s="50"/>
+      <c r="AL88" s="51"/>
+      <c r="AM88" s="51"/>
+      <c r="AN88" s="51"/>
+      <c r="AO88" s="51"/>
+      <c r="AP88" s="59"/>
+      <c r="AQ88" s="28"/>
+      <c r="AR88" s="56"/>
+      <c r="AS88" s="28"/>
+      <c r="AT88" s="56"/>
+      <c r="AU88" s="28"/>
+      <c r="AV88" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW88" s="28"/>
+      <c r="AX88" s="28"/>
+      <c r="AY88" s="28"/>
+      <c r="AZ88" s="28"/>
+      <c r="BA88" s="28"/>
+      <c r="BB88" s="28"/>
+      <c r="BC88" s="52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U89" s="88"/>
+      <c r="V89" s="89"/>
+      <c r="W89" s="49"/>
+      <c r="X89" s="49"/>
+      <c r="Y89" s="49"/>
+      <c r="Z89" s="50"/>
+      <c r="AA89" s="50"/>
+      <c r="AB89" s="50"/>
+      <c r="AC89" s="50"/>
+      <c r="AD89" s="50"/>
+      <c r="AE89" s="50"/>
+      <c r="AF89" s="50"/>
+      <c r="AG89" s="50"/>
+      <c r="AH89" s="50"/>
+      <c r="AI89" s="50"/>
+      <c r="AJ89" s="50"/>
+      <c r="AK89" s="50"/>
+      <c r="AL89" s="51"/>
+      <c r="AM89" s="51"/>
+      <c r="AN89" s="51"/>
+      <c r="AO89" s="51"/>
+      <c r="AP89" s="59"/>
+      <c r="AQ89" s="28"/>
+      <c r="AR89" s="56"/>
+      <c r="AS89" s="28"/>
+      <c r="AT89" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU89" s="28"/>
+      <c r="AV89" s="28"/>
+      <c r="AW89" s="28"/>
+      <c r="AX89" s="28"/>
+      <c r="AY89" s="28"/>
+      <c r="AZ89" s="28"/>
+      <c r="BA89" s="28"/>
+      <c r="BB89" s="28"/>
+      <c r="BC89" s="52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U90" s="95"/>
+      <c r="V90" s="89"/>
+      <c r="W90" s="49"/>
+      <c r="X90" s="49"/>
+      <c r="Y90" s="49"/>
+      <c r="Z90" s="50"/>
+      <c r="AA90" s="50"/>
+      <c r="AB90" s="50"/>
+      <c r="AC90" s="50"/>
+      <c r="AD90" s="50"/>
+      <c r="AE90" s="50"/>
+      <c r="AF90" s="50"/>
+      <c r="AG90" s="50"/>
+      <c r="AH90" s="50"/>
+      <c r="AI90" s="50"/>
+      <c r="AJ90" s="50"/>
+      <c r="AK90" s="50"/>
+      <c r="AL90" s="51"/>
+      <c r="AM90" s="51"/>
+      <c r="AN90" s="51"/>
+      <c r="AO90" s="51"/>
+      <c r="AP90" s="59"/>
+      <c r="AQ90" s="28"/>
+      <c r="AR90" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS90" s="28"/>
+      <c r="AT90" s="28"/>
+      <c r="AU90" s="28"/>
+      <c r="AV90" s="28"/>
+      <c r="AW90" s="28"/>
+      <c r="AX90" s="28"/>
+      <c r="AY90" s="28"/>
+      <c r="AZ90" s="28"/>
+      <c r="BA90" s="28"/>
+      <c r="BB90" s="28"/>
+      <c r="BC90" s="52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U91" s="88"/>
+      <c r="V91" s="89"/>
+      <c r="W91" s="49"/>
+      <c r="X91" s="49"/>
+      <c r="Y91" s="49"/>
+      <c r="Z91" s="50"/>
+      <c r="AA91" s="50"/>
+      <c r="AB91" s="50"/>
+      <c r="AC91" s="50"/>
+      <c r="AD91" s="50"/>
+      <c r="AE91" s="50"/>
+      <c r="AF91" s="50"/>
+      <c r="AG91" s="50"/>
+      <c r="AH91" s="50"/>
+      <c r="AI91" s="50"/>
+      <c r="AJ91" s="50"/>
+      <c r="AK91" s="50"/>
+      <c r="AL91" s="51"/>
+      <c r="AM91" s="51"/>
+      <c r="AN91" s="51"/>
+      <c r="AO91" s="51"/>
+      <c r="AP91" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ91" s="28"/>
+      <c r="AR91" s="56"/>
+      <c r="AS91" s="28"/>
+      <c r="AT91" s="28"/>
+      <c r="AU91" s="28"/>
+      <c r="AV91" s="28"/>
+      <c r="AW91" s="28"/>
+      <c r="AX91" s="28"/>
+      <c r="AY91" s="28"/>
+      <c r="AZ91" s="28"/>
+      <c r="BA91" s="28"/>
+      <c r="BB91" s="28"/>
+      <c r="BC91" s="52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U92" s="95"/>
+      <c r="V92" s="89"/>
+      <c r="W92" s="49"/>
+      <c r="X92" s="49"/>
+      <c r="Y92" s="49"/>
+      <c r="Z92" s="50"/>
+      <c r="AA92" s="50"/>
+      <c r="AB92" s="50"/>
+      <c r="AC92" s="50"/>
+      <c r="AD92" s="50"/>
+      <c r="AE92" s="50"/>
+      <c r="AF92" s="50"/>
+      <c r="AG92" s="50"/>
+      <c r="AH92" s="50"/>
+      <c r="AI92" s="50"/>
+      <c r="AJ92" s="50"/>
+      <c r="AK92" s="50"/>
+      <c r="AL92" s="51"/>
+      <c r="AM92" s="51"/>
+      <c r="AN92" s="51"/>
+      <c r="AO92" s="51"/>
+      <c r="AP92" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ92" s="28"/>
+      <c r="AR92" s="56"/>
+      <c r="AS92" s="28"/>
+      <c r="AT92" s="28"/>
+      <c r="AU92" s="28"/>
+      <c r="AV92" s="28"/>
+      <c r="AW92" s="28"/>
+      <c r="AX92" s="28"/>
+      <c r="AY92" s="28"/>
+      <c r="AZ92" s="28"/>
+      <c r="BA92" s="28"/>
+      <c r="BB92" s="28"/>
+      <c r="BC92" s="52"/>
+    </row>
+    <row r="93" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U93" s="95"/>
+      <c r="V93" s="89"/>
+      <c r="W93" s="49"/>
+      <c r="X93" s="49"/>
+      <c r="Y93" s="49"/>
+      <c r="Z93" s="50"/>
+      <c r="AA93" s="50"/>
+      <c r="AB93" s="50"/>
+      <c r="AC93" s="50"/>
+      <c r="AD93" s="50"/>
+      <c r="AE93" s="50"/>
+      <c r="AF93" s="50"/>
+      <c r="AG93" s="50"/>
+      <c r="AH93" s="50"/>
+      <c r="AI93" s="50"/>
+      <c r="AJ93" s="50"/>
+      <c r="AK93" s="50"/>
+      <c r="AL93" s="51"/>
+      <c r="AM93" s="51"/>
+      <c r="AN93" s="51"/>
+      <c r="AO93" s="51"/>
+      <c r="AP93" s="59"/>
+      <c r="AQ93" s="28"/>
+      <c r="AR93" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS93" s="28"/>
+      <c r="AT93" s="28"/>
+      <c r="AU93" s="28"/>
+      <c r="AV93" s="28"/>
+      <c r="AW93" s="28"/>
+      <c r="AX93" s="28"/>
+      <c r="AY93" s="28"/>
+      <c r="AZ93" s="28"/>
+      <c r="BA93" s="28"/>
+      <c r="BB93" s="28"/>
+      <c r="BC93" s="52"/>
+    </row>
+    <row r="94" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U94" s="88"/>
+      <c r="V94" s="89"/>
+      <c r="W94" s="49"/>
+      <c r="X94" s="49"/>
+      <c r="Y94" s="49"/>
+      <c r="Z94" s="50"/>
+      <c r="AA94" s="50"/>
+      <c r="AB94" s="50"/>
+      <c r="AC94" s="50"/>
+      <c r="AD94" s="50"/>
+      <c r="AE94" s="50"/>
+      <c r="AF94" s="50"/>
+      <c r="AG94" s="50"/>
+      <c r="AH94" s="50"/>
+      <c r="AI94" s="50"/>
+      <c r="AJ94" s="50"/>
+      <c r="AK94" s="50"/>
+      <c r="AL94" s="51"/>
+      <c r="AM94" s="51"/>
+      <c r="AN94" s="51"/>
+      <c r="AO94" s="51"/>
+      <c r="AP94" s="59"/>
+      <c r="AQ94" s="28"/>
+      <c r="AR94" s="56"/>
+      <c r="AS94" s="28"/>
+      <c r="AT94" s="28"/>
+      <c r="AU94" s="28"/>
+      <c r="AV94" s="28"/>
+      <c r="AW94" s="28"/>
+      <c r="AX94" s="28"/>
+      <c r="AY94" s="28"/>
+      <c r="AZ94" s="28"/>
+      <c r="BA94" s="28"/>
+      <c r="BB94" s="28"/>
+      <c r="BC94" s="52"/>
+    </row>
+    <row r="95" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U95" s="95"/>
+      <c r="V95" s="89"/>
+      <c r="W95" s="81"/>
+      <c r="X95" s="81"/>
+      <c r="Y95" s="81"/>
+      <c r="Z95" s="82"/>
+      <c r="AA95" s="82"/>
+      <c r="AB95" s="82"/>
+      <c r="AC95" s="82"/>
+      <c r="AD95" s="82"/>
+      <c r="AE95" s="82"/>
+      <c r="AF95" s="82"/>
+      <c r="AG95" s="82"/>
+      <c r="AH95" s="82"/>
+      <c r="AI95" s="82"/>
+      <c r="AJ95" s="82"/>
+      <c r="AK95" s="82"/>
+      <c r="AL95" s="83"/>
+      <c r="AM95" s="83"/>
+      <c r="AN95" s="83"/>
+      <c r="AO95" s="83"/>
+      <c r="AP95" s="84"/>
+      <c r="AQ95" s="85"/>
+      <c r="AR95" s="86"/>
+      <c r="AS95" s="85"/>
+      <c r="AT95" s="85"/>
+      <c r="AU95" s="85"/>
+      <c r="AV95" s="85"/>
+      <c r="AW95" s="85"/>
+      <c r="AX95" s="85"/>
+      <c r="AY95" s="85"/>
+      <c r="AZ95" s="85"/>
+      <c r="BA95" s="85"/>
+      <c r="BB95" s="85"/>
+      <c r="BC95" s="87"/>
+    </row>
+    <row r="96" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U96" s="95"/>
+      <c r="V96" s="89"/>
+      <c r="W96" s="90"/>
+      <c r="X96" s="90"/>
+      <c r="Y96" s="90"/>
+      <c r="Z96" s="91"/>
+      <c r="AA96" s="91"/>
+      <c r="AB96" s="91"/>
+      <c r="AC96" s="91"/>
+      <c r="AD96" s="91"/>
+      <c r="AE96" s="91"/>
+      <c r="AF96" s="91"/>
+      <c r="AG96" s="91"/>
+      <c r="AH96" s="91"/>
+      <c r="AI96" s="91"/>
+      <c r="AJ96" s="91"/>
+      <c r="AK96" s="91"/>
+      <c r="AL96" s="92"/>
+      <c r="AM96" s="92"/>
+      <c r="AN96" s="92"/>
+      <c r="AO96" s="92"/>
+      <c r="AP96" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ96" s="93"/>
+      <c r="AR96" s="57"/>
+      <c r="AS96" s="93"/>
+      <c r="AT96" s="93"/>
+      <c r="AU96" s="93"/>
+      <c r="AV96" s="93"/>
+      <c r="AW96" s="93"/>
+      <c r="AX96" s="93"/>
+      <c r="AY96" s="93"/>
+      <c r="AZ96" s="93"/>
+      <c r="BA96" s="93"/>
+      <c r="BB96" s="93"/>
+      <c r="BC96" s="94"/>
+    </row>
+    <row r="97" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U97" s="95"/>
+      <c r="V97" s="89"/>
+      <c r="W97" s="90"/>
+      <c r="X97" s="90"/>
+      <c r="Y97" s="90"/>
+      <c r="Z97" s="91"/>
+      <c r="AA97" s="91"/>
+      <c r="AB97" s="91"/>
+      <c r="AC97" s="91"/>
+      <c r="AD97" s="91"/>
+      <c r="AE97" s="91"/>
+      <c r="AF97" s="91"/>
+      <c r="AG97" s="91"/>
+      <c r="AH97" s="91"/>
+      <c r="AI97" s="91"/>
+      <c r="AJ97" s="91"/>
+      <c r="AK97" s="91"/>
+      <c r="AL97" s="92"/>
+      <c r="AM97" s="92"/>
+      <c r="AN97" s="92"/>
+      <c r="AO97" s="92"/>
+      <c r="AP97" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ97" s="93"/>
+      <c r="AR97" s="57"/>
+      <c r="AS97" s="93"/>
+      <c r="AT97" s="93"/>
+      <c r="AU97" s="93"/>
+      <c r="AV97" s="93"/>
+      <c r="AW97" s="93"/>
+      <c r="AX97" s="93"/>
+      <c r="AY97" s="93"/>
+      <c r="AZ97" s="93"/>
+      <c r="BA97" s="93"/>
+      <c r="BB97" s="93"/>
+      <c r="BC97" s="94"/>
+    </row>
+    <row r="98" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U98" s="95"/>
+      <c r="V98" s="89"/>
+      <c r="W98" s="90"/>
+      <c r="X98" s="90"/>
+      <c r="Y98" s="90"/>
+      <c r="Z98" s="91"/>
+      <c r="AA98" s="91"/>
+      <c r="AB98" s="91"/>
+      <c r="AC98" s="91"/>
+      <c r="AD98" s="91"/>
+      <c r="AE98" s="91"/>
+      <c r="AF98" s="91"/>
+      <c r="AG98" s="91"/>
+      <c r="AH98" s="91"/>
+      <c r="AI98" s="91"/>
+      <c r="AJ98" s="91"/>
+      <c r="AK98" s="91"/>
+      <c r="AL98" s="92"/>
+      <c r="AM98" s="92"/>
+      <c r="AN98" s="92"/>
+      <c r="AO98" s="92"/>
+      <c r="AP98" s="92"/>
+      <c r="AQ98" s="93"/>
+      <c r="AR98" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS98" s="93"/>
+      <c r="AT98" s="93"/>
+      <c r="AU98" s="93"/>
+      <c r="AV98" s="93"/>
+      <c r="AW98" s="93"/>
+      <c r="AX98" s="93"/>
+      <c r="AY98" s="93"/>
+      <c r="AZ98" s="93"/>
+      <c r="BA98" s="93"/>
+      <c r="BB98" s="93"/>
+      <c r="BC98" s="94"/>
+    </row>
+    <row r="99" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U99" s="88"/>
+      <c r="V99" s="89"/>
+      <c r="W99" s="90"/>
+      <c r="X99" s="90"/>
+      <c r="Y99" s="90"/>
+      <c r="Z99" s="91"/>
+      <c r="AA99" s="91"/>
+      <c r="AB99" s="91"/>
+      <c r="AC99" s="91"/>
+      <c r="AD99" s="91"/>
+      <c r="AE99" s="91"/>
+      <c r="AF99" s="91"/>
+      <c r="AG99" s="91"/>
+      <c r="AH99" s="91"/>
+      <c r="AI99" s="91"/>
+      <c r="AJ99" s="91"/>
+      <c r="AK99" s="91"/>
+      <c r="AL99" s="92"/>
+      <c r="AM99" s="92"/>
+      <c r="AN99" s="92"/>
+      <c r="AO99" s="92"/>
+      <c r="AP99" s="92"/>
+      <c r="AQ99" s="93"/>
+      <c r="AR99" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS99" s="93"/>
+      <c r="AT99" s="93"/>
+      <c r="AU99" s="93"/>
+      <c r="AV99" s="93"/>
+      <c r="AW99" s="93"/>
+      <c r="AX99" s="93"/>
+      <c r="AY99" s="93"/>
+      <c r="AZ99" s="93"/>
+      <c r="BA99" s="93"/>
+      <c r="BB99" s="93"/>
+      <c r="BC99" s="94"/>
+    </row>
+    <row r="100" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U100" s="95"/>
+      <c r="V100" s="89"/>
+      <c r="W100" s="90"/>
+      <c r="X100" s="90"/>
+      <c r="Y100" s="90"/>
+      <c r="Z100" s="91"/>
+      <c r="AA100" s="91"/>
+      <c r="AB100" s="91"/>
+      <c r="AC100" s="91"/>
+      <c r="AD100" s="91"/>
+      <c r="AE100" s="91"/>
+      <c r="AF100" s="91"/>
+      <c r="AG100" s="91"/>
+      <c r="AH100" s="91"/>
+      <c r="AI100" s="91"/>
+      <c r="AJ100" s="91"/>
+      <c r="AK100" s="91"/>
+      <c r="AL100" s="92"/>
+      <c r="AM100" s="92"/>
+      <c r="AN100" s="92"/>
+      <c r="AO100" s="92"/>
+      <c r="AP100" s="92"/>
+      <c r="AQ100" s="93"/>
+      <c r="AR100" s="57"/>
+      <c r="AS100" s="93"/>
+      <c r="AT100" s="93"/>
+      <c r="AU100" s="93"/>
+      <c r="AV100" s="93"/>
+      <c r="AW100" s="93"/>
+      <c r="AX100" s="93"/>
+      <c r="AY100" s="93"/>
+      <c r="AZ100" s="93"/>
+      <c r="BA100" s="93"/>
+      <c r="BB100" s="93"/>
+      <c r="BC100" s="94"/>
+    </row>
+    <row r="101" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U101" s="95"/>
+      <c r="V101" s="89"/>
+      <c r="W101" s="90"/>
+      <c r="X101" s="90"/>
+      <c r="Y101" s="90"/>
+      <c r="Z101" s="91"/>
+      <c r="AA101" s="91"/>
+      <c r="AB101" s="91"/>
+      <c r="AC101" s="91"/>
+      <c r="AD101" s="91"/>
+      <c r="AE101" s="91"/>
+      <c r="AF101" s="91"/>
+      <c r="AG101" s="91"/>
+      <c r="AH101" s="91"/>
+      <c r="AI101" s="91"/>
+      <c r="AJ101" s="91"/>
+      <c r="AK101" s="91"/>
+      <c r="AL101" s="92"/>
+      <c r="AM101" s="92"/>
+      <c r="AN101" s="92"/>
+      <c r="AO101" s="92"/>
+      <c r="AP101" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ101" s="93"/>
+      <c r="AR101" s="57"/>
+      <c r="AS101" s="93"/>
+      <c r="AT101" s="93"/>
+      <c r="AU101" s="93"/>
+      <c r="AV101" s="93"/>
+      <c r="AW101" s="93"/>
+      <c r="AX101" s="93"/>
+      <c r="AY101" s="93"/>
+      <c r="AZ101" s="93"/>
+      <c r="BA101" s="93"/>
+      <c r="BB101" s="93"/>
+      <c r="BC101" s="94"/>
+    </row>
+    <row r="102" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="U102" s="96"/>
+      <c r="V102" s="97"/>
+      <c r="W102" s="98"/>
+      <c r="X102" s="98"/>
+      <c r="Y102" s="98"/>
+      <c r="Z102" s="99"/>
+      <c r="AA102" s="99"/>
+      <c r="AB102" s="99"/>
+      <c r="AC102" s="99"/>
+      <c r="AD102" s="99"/>
+      <c r="AE102" s="99"/>
+      <c r="AF102" s="99"/>
+      <c r="AG102" s="99"/>
+      <c r="AH102" s="99"/>
+      <c r="AI102" s="99"/>
+      <c r="AJ102" s="99"/>
+      <c r="AK102" s="99"/>
+      <c r="AL102" s="100"/>
+      <c r="AM102" s="100"/>
+      <c r="AN102" s="100"/>
+      <c r="AO102" s="100"/>
+      <c r="AP102" s="100"/>
+      <c r="AQ102" s="101"/>
+      <c r="AR102" s="102"/>
+      <c r="AS102" s="101"/>
+      <c r="AT102" s="101"/>
+      <c r="AU102" s="101"/>
+      <c r="AV102" s="101"/>
+      <c r="AW102" s="101"/>
+      <c r="AX102" s="101"/>
+      <c r="AY102" s="101"/>
+      <c r="AZ102" s="101"/>
+      <c r="BA102" s="101"/>
+      <c r="BB102" s="101"/>
+      <c r="BC102" s="103"/>
+    </row>
+    <row r="103" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="AL103" s="44"/>
+      <c r="AM103" s="44"/>
+      <c r="AN103" s="44"/>
+      <c r="AO103" s="44"/>
+      <c r="AP103" s="44"/>
+      <c r="AQ103" s="4"/>
+      <c r="AR103" s="4"/>
+      <c r="AS103" s="4"/>
+      <c r="AT103" s="4"/>
+      <c r="AU103" s="4"/>
+      <c r="AV103" s="4"/>
+      <c r="AW103" s="4"/>
+      <c r="AX103" s="4"/>
+      <c r="AY103" s="4"/>
+      <c r="AZ103" s="4"/>
+      <c r="BA103" s="4"/>
+      <c r="BB103" s="4"/>
+    </row>
+    <row r="104" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="AL104" s="44"/>
+      <c r="AM104" s="44"/>
+      <c r="AN104" s="44"/>
+      <c r="AO104" s="44"/>
+      <c r="AP104" s="44"/>
+      <c r="AQ104" s="4"/>
+      <c r="AR104" s="4"/>
+      <c r="AS104" s="4"/>
+      <c r="AT104" s="4"/>
+      <c r="AU104" s="4"/>
+      <c r="AV104" s="4"/>
+      <c r="AW104" s="4"/>
+      <c r="AX104" s="4"/>
+      <c r="AY104" s="4"/>
+      <c r="AZ104" s="4"/>
+      <c r="BA104" s="4"/>
+      <c r="BB104" s="4"/>
+    </row>
+    <row r="105" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="AL105" s="44"/>
+      <c r="AM105" s="44"/>
+      <c r="AN105" s="44"/>
+      <c r="AO105" s="44"/>
+      <c r="AP105" s="44"/>
+      <c r="AQ105" s="4"/>
+      <c r="AR105" s="4"/>
+      <c r="AS105" s="4"/>
+      <c r="AT105" s="4"/>
+      <c r="AU105" s="4"/>
+      <c r="AV105" s="4"/>
+      <c r="AW105" s="4"/>
+      <c r="AX105" s="4"/>
+      <c r="AY105" s="4"/>
+      <c r="AZ105" s="4"/>
+      <c r="BA105" s="4"/>
+      <c r="BB105" s="4"/>
+    </row>
+    <row r="106" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="AL106" s="44"/>
+      <c r="AM106" s="44"/>
+      <c r="AN106" s="44"/>
+      <c r="AO106" s="44"/>
+      <c r="AP106" s="44"/>
+      <c r="AQ106" s="4"/>
+      <c r="AR106" s="4"/>
+      <c r="AS106" s="4"/>
+      <c r="AT106" s="4"/>
+      <c r="AU106" s="4"/>
+      <c r="AV106" s="4"/>
+      <c r="AW106" s="4"/>
+      <c r="AX106" s="4"/>
+      <c r="AY106" s="4"/>
+      <c r="AZ106" s="4"/>
+      <c r="BA106" s="4"/>
+      <c r="BB106" s="4"/>
+    </row>
+    <row r="107" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="AL107" s="44"/>
+      <c r="AM107" s="44"/>
+      <c r="AN107" s="44"/>
+      <c r="AO107" s="44"/>
+      <c r="AP107" s="44"/>
+      <c r="AQ107" s="4"/>
+      <c r="AR107" s="4"/>
+      <c r="AS107" s="4"/>
+      <c r="AT107" s="4"/>
+      <c r="AU107" s="4"/>
+      <c r="AV107" s="4"/>
+      <c r="AW107" s="4"/>
+      <c r="AX107" s="4"/>
+      <c r="AY107" s="4"/>
+      <c r="AZ107" s="4"/>
+      <c r="BA107" s="4"/>
+      <c r="BB107" s="4"/>
+    </row>
+    <row r="108" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="AL108" s="4"/>
+      <c r="AM108" s="4"/>
+      <c r="AN108" s="4"/>
+      <c r="AO108" s="4"/>
+      <c r="AP108" s="4"/>
+      <c r="AQ108" s="4"/>
+      <c r="AR108" s="4"/>
+      <c r="AS108" s="4"/>
+      <c r="AT108" s="4"/>
+      <c r="AU108" s="4"/>
+      <c r="AV108" s="4"/>
+      <c r="AW108" s="4"/>
+      <c r="AX108" s="4"/>
+      <c r="AY108" s="4"/>
+      <c r="AZ108" s="4"/>
+      <c r="BA108" s="4"/>
+      <c r="BB108" s="4"/>
+    </row>
+    <row r="109" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="AL109" s="4"/>
+      <c r="AM109" s="4"/>
+      <c r="AN109" s="4"/>
+      <c r="AO109" s="4"/>
+      <c r="AP109" s="4"/>
+      <c r="AQ109" s="4"/>
+      <c r="AR109" s="4"/>
+      <c r="AS109" s="4"/>
+      <c r="AT109" s="4"/>
+      <c r="AU109" s="4"/>
+      <c r="AV109" s="4"/>
+      <c r="AW109" s="4"/>
+      <c r="AX109" s="4"/>
+      <c r="AY109" s="4"/>
+      <c r="AZ109" s="4"/>
+      <c r="BA109" s="4"/>
+      <c r="BB109" s="4"/>
+    </row>
+    <row r="110" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="AG110" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL110" s="4"/>
+      <c r="AM110" s="4"/>
+      <c r="AN110" s="4"/>
+      <c r="AO110" s="4"/>
+      <c r="AP110" s="4"/>
+      <c r="AQ110" s="4"/>
+      <c r="AR110" s="4"/>
+      <c r="AS110" s="4"/>
+      <c r="AT110" s="4"/>
+      <c r="AU110" s="4"/>
+      <c r="AV110" s="4"/>
+      <c r="AW110" s="4"/>
+      <c r="AX110" s="4"/>
+      <c r="AY110" s="4"/>
+      <c r="AZ110" s="4"/>
+      <c r="BA110" s="4"/>
+      <c r="BB110" s="4"/>
+    </row>
+    <row r="111" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="AG111" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL111" s="4"/>
+      <c r="AM111" s="4"/>
+      <c r="AN111" s="4"/>
+      <c r="AO111" s="4"/>
+      <c r="AP111" s="4"/>
+      <c r="AQ111" s="4"/>
+      <c r="AR111" s="4"/>
+      <c r="AS111" s="4"/>
+      <c r="AT111" s="4"/>
+      <c r="AU111" s="4"/>
+      <c r="AV111" s="4"/>
+      <c r="AW111" s="4"/>
+      <c r="AX111" s="4"/>
+      <c r="AY111" s="4"/>
+      <c r="AZ111" s="4"/>
+      <c r="BA111" s="4"/>
+      <c r="BB111" s="4"/>
+    </row>
+    <row r="112" spans="21:55" x14ac:dyDescent="0.25">
+      <c r="AG112" s="43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="113" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG113" s="43" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="AK12:AM12"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AW12:AY12"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>